--- a/baidu_history_xlsx/baidu_一条房基.xlsx
+++ b/baidu_history_xlsx/baidu_一条房基.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>东厂的猫</t>
+  </si>
   <si>
     <t>雨哲哲哲哲哲哲</t>
   </si>
@@ -390,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -502,6 +505,17 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>2</v>
       </c>
     </row>
